--- a/official_results/CNN_3_results.xlsx
+++ b/official_results/CNN_3_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1038,6 +1038,281 @@
         <v>128</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4.625899882845316</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction, month, coords, discharge</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>128</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>104 of 300</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2024-12-29</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>15:41:17</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>257.8</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5.940753931848527</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction, month, coords, discharge</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>128</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>75 of 300</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2024-12-29</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>15:44:19</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>178.64</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5.482877491015336</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction, month, coords, discharge</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>128</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>93 of 300</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2024-12-29</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>15:48:17</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>235.89</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4.999690655018057</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction, month, coords, discharge</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>128</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>81 of 300</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2024-12-29</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>15:51:34</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>194.13</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5.241347736989142</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction, month, coords, discharge</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>128</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>72 of 300</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2024-12-29</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>15:54:30</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>174.35</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/official_results/CNN_3_results.xlsx
+++ b/official_results/CNN_3_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1313,6 +1313,281 @@
         <v>128</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5.054629237180444</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>128</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>70 of 300</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>10:34:44</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>139.01</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RMSE </t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6.127451363347737</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>128</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>47 of 300</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>10:36:17</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>91.13</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RMSE </t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5.465787797298441</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>128</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>74 of 300</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>10:38:36</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>137.41</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RMSE </t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5.193970158770267</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>128</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>58 of 300</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>10:40:31</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>113.17</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RMSE </t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>16</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4.902640482139106</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>128</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>63 of 300</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>10:42:34</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>121.76</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RMSE </t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
